--- a/Input/tonns of good.xlsx
+++ b/Input/tonns of good.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <fileSharing userName="Administrator" reservationPassword="CF6A"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="quantity" sheetId="1" r:id="rId1"/>
     <sheet name="amount" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]mmmm/yy;@"/>
@@ -313,7 +313,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,7 +396,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,6 +601,9 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,11 +611,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -680,6 +694,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -714,6 +729,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,14 +905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="22" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="22" customWidth="1"/>
@@ -908,7 +924,7 @@
     <col min="15" max="15" width="14.125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -952,7 +968,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="18">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1007,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -1062,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1117,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>25</v>
@@ -1144,13 +1160,13 @@
       <c r="J5" s="9">
         <v>375</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>27</v>
@@ -1177,13 +1193,13 @@
       <c r="J6" s="9">
         <v>750</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>32</v>
@@ -1206,13 +1222,13 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>34</v>
@@ -1237,13 +1253,13 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>36</v>
@@ -1266,13 +1282,13 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>40</v>
@@ -1295,13 +1311,13 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="12" t="s">
         <v>4</v>
@@ -1324,13 +1340,13 @@
       <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="12">
         <v>24</v>
@@ -1357,13 +1373,13 @@
       <c r="J12" s="9">
         <v>1875</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -1386,13 +1402,13 @@
       <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -1415,13 +1431,13 @@
       <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1444,13 +1460,13 @@
       <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -1477,13 +1493,13 @@
       <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -1508,13 +1524,13 @@
       <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -1543,7 +1559,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -1572,7 +1588,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1601,7 +1617,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
@@ -1630,7 +1646,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
@@ -1659,7 +1675,7 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>15</v>
@@ -1688,7 +1704,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -1717,7 +1733,7 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -1746,7 +1762,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="16" customFormat="1">
+    <row r="26" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
         <v>18</v>
@@ -1775,7 +1791,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="18">
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -1830,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
         <v>20</v>
@@ -1885,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
         <v>21</v>
@@ -1940,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7">
         <v>25</v>
@@ -1973,7 +1989,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7">
         <v>27</v>
@@ -2006,7 +2022,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7">
         <v>32</v>
@@ -2035,7 +2051,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7">
         <v>34</v>
@@ -2066,7 +2082,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7">
         <v>36</v>
@@ -2095,7 +2111,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7">
         <v>40</v>
@@ -2124,7 +2140,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="12" t="s">
         <v>4</v>
@@ -2153,7 +2169,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="12">
         <v>24</v>
@@ -2186,7 +2202,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="12" t="s">
         <v>5</v>
@@ -2215,7 +2231,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>6</v>
@@ -2244,7 +2260,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
         <v>7</v>
@@ -2273,7 +2289,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>8</v>
@@ -2306,7 +2322,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -2336,7 +2352,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>10</v>
@@ -2365,7 +2381,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>11</v>
@@ -2394,7 +2410,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2423,7 +2439,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -2452,7 +2468,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>14</v>
@@ -2481,7 +2497,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -2510,7 +2526,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>16</v>
@@ -2539,7 +2555,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>17</v>
@@ -2568,7 +2584,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="20" t="s">
         <v>18</v>
@@ -2597,7 +2613,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:17" s="6" customFormat="1" ht="18">
+    <row r="52" spans="1:17" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -2655,7 +2671,7 @@
         <v>5677.1689200000001</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
         <v>23</v>
@@ -2713,7 +2729,7 @@
         <v>5380.625</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
         <v>21</v>
@@ -2771,7 +2787,7 @@
         <v>5380.625</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7">
         <v>25</v>
@@ -2829,7 +2845,7 @@
       </c>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7">
         <v>27</v>
@@ -2887,7 +2903,7 @@
       </c>
       <c r="Q56" s="21"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7">
         <v>32</v>
@@ -2945,7 +2961,7 @@
       </c>
       <c r="Q57" s="21"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7">
         <v>34</v>
@@ -3003,7 +3019,7 @@
       </c>
       <c r="Q58" s="21"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7">
         <v>36</v>
@@ -3061,7 +3077,7 @@
       </c>
       <c r="Q59" s="21"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7">
         <v>40</v>
@@ -3119,7 +3135,7 @@
       </c>
       <c r="Q60" s="21"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="12" t="s">
         <v>4</v>
@@ -3177,7 +3193,7 @@
       </c>
       <c r="Q61" s="21"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="12">
         <v>24</v>
@@ -3235,7 +3251,7 @@
       </c>
       <c r="Q62" s="21"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="12" t="s">
         <v>5</v>
@@ -3293,7 +3309,7 @@
       </c>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
         <v>6</v>
@@ -3351,7 +3367,7 @@
       </c>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
         <v>7</v>
@@ -3409,7 +3425,7 @@
       </c>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
@@ -3467,7 +3483,7 @@
       </c>
       <c r="Q66" s="21"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>9</v>
@@ -3525,7 +3541,7 @@
       </c>
       <c r="Q67" s="21"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>10</v>
@@ -3583,7 +3599,7 @@
       </c>
       <c r="Q68" s="21"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>11</v>
@@ -3641,7 +3657,7 @@
       </c>
       <c r="Q69" s="21"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -3699,7 +3715,7 @@
       </c>
       <c r="Q70" s="21"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>13</v>
@@ -3757,7 +3773,7 @@
       </c>
       <c r="Q71" s="21"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>14</v>
@@ -3815,7 +3831,7 @@
       </c>
       <c r="Q72" s="21"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>15</v>
@@ -3873,7 +3889,7 @@
       </c>
       <c r="Q73" s="21"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>16</v>
@@ -3931,7 +3947,7 @@
       </c>
       <c r="Q74" s="21"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="3" t="s">
         <v>17</v>
@@ -3989,7 +4005,7 @@
       </c>
       <c r="Q75" s="21"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="20" t="s">
         <v>18</v>
@@ -4047,13 +4063,13 @@
       </c>
       <c r="Q76" s="21"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C77" s="23"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C78" s="23"/>
     </row>
-    <row r="79" spans="1:17" ht="14.25">
+    <row r="79" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B79" s="26" t="s">
         <v>24</v>
       </c>
@@ -4107,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="14.25">
+    <row r="80" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="26" t="s">
         <v>25</v>
       </c>
@@ -4161,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="14.25">
+    <row r="81" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B81" s="26" t="s">
         <v>26</v>
       </c>
@@ -4215,13 +4231,13 @@
         <v>5677.1689200000001</v>
       </c>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C82" s="23"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C83" s="23"/>
     </row>
-    <row r="84" spans="2:15" ht="14.25">
+    <row r="84" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="27"/>
       <c r="C84" s="1" t="s">
         <v>0</v>
@@ -4263,7 +4279,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="14.25">
+    <row r="85" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B85" s="28" t="s">
         <v>22</v>
       </c>
@@ -4281,7 +4297,7 @@
       <c r="N85" s="29"/>
       <c r="O85" s="30"/>
     </row>
-    <row r="86" spans="2:15" ht="14.25">
+    <row r="86" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B86" s="31" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +4315,7 @@
       <c r="N86" s="29"/>
       <c r="O86" s="30"/>
     </row>
-    <row r="87" spans="2:15" ht="14.25">
+    <row r="87" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="31" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4333,7 @@
       <c r="N87" s="29"/>
       <c r="O87" s="30"/>
     </row>
-    <row r="88" spans="2:15" ht="14.25">
+    <row r="88" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B88" s="31" t="s">
         <v>8</v>
       </c>
@@ -4335,7 +4351,7 @@
       <c r="N88" s="29"/>
       <c r="O88" s="30"/>
     </row>
-    <row r="89" spans="2:15" ht="14.25">
+    <row r="89" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="31" t="s">
         <v>28</v>
       </c>
@@ -4353,7 +4369,7 @@
       <c r="N89" s="29"/>
       <c r="O89" s="30"/>
     </row>
-    <row r="90" spans="2:15" ht="14.25">
+    <row r="90" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B90" s="31" t="s">
         <v>29</v>
       </c>
@@ -4379,14 +4395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:I71"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="47" customWidth="1"/>
     <col min="2" max="2" width="38.25" style="47" bestFit="1" customWidth="1"/>
@@ -4397,17 +4413,17 @@
     <col min="16" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="33">
-        <v>41640</v>
+        <v>42370</v>
       </c>
       <c r="E1" s="33">
-        <v>41671</v>
+        <v>42401</v>
       </c>
       <c r="F1" s="33">
         <v>42460.757523148146</v>
@@ -4441,7 +4457,7 @@
       </c>
       <c r="P1" s="34"/>
     </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" ht="18">
+    <row r="2" spans="1:16" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="36" t="s">
         <v>1</v>
@@ -4496,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="40" t="s">
         <v>2</v>
@@ -4551,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39" t="s">
         <v>3</v>
@@ -4606,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39">
         <v>25</v>
@@ -4639,7 +4655,7 @@
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39">
         <v>27</v>
@@ -4672,7 +4688,7 @@
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39">
         <v>32</v>
@@ -4703,7 +4719,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39">
         <v>34</v>
@@ -4734,7 +4750,7 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39">
         <v>36</v>
@@ -4765,7 +4781,7 @@
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39">
         <v>40</v>
@@ -4796,7 +4812,7 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="42" t="s">
         <v>4</v>
@@ -4827,7 +4843,7 @@
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="42">
         <v>24</v>
@@ -4860,7 +4876,7 @@
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="42" t="s">
         <v>5</v>
@@ -4891,7 +4907,7 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="s">
         <v>6</v>
@@ -4922,7 +4938,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>7</v>
@@ -4953,7 +4969,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>8</v>
@@ -4986,7 +5002,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="20" t="s">
         <v>9</v>
@@ -5019,7 +5035,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>10</v>
@@ -5050,7 +5066,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>11</v>
@@ -5081,7 +5097,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>12</v>
@@ -5112,7 +5128,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>13</v>
@@ -5143,7 +5159,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>14</v>
@@ -5174,7 +5190,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>15</v>
@@ -5205,7 +5221,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>16</v>
@@ -5236,7 +5252,7 @@
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -5267,7 +5283,7 @@
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="20" t="s">
         <v>30</v>
@@ -5300,7 +5316,7 @@
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
     </row>
-    <row r="27" spans="1:15" s="38" customFormat="1" ht="18">
+    <row r="27" spans="1:15" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="36" t="s">
         <v>19</v>
@@ -5355,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
         <v>20</v>
@@ -5410,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
         <v>21</v>
@@ -5465,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39">
         <v>25</v>
@@ -5498,7 +5514,7 @@
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39">
         <v>27</v>
@@ -5531,7 +5547,7 @@
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39">
         <v>32</v>
@@ -5560,7 +5576,7 @@
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39">
         <v>34</v>
@@ -5591,7 +5607,7 @@
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39">
         <v>36</v>
@@ -5620,7 +5636,7 @@
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39">
         <v>40</v>
@@ -5649,7 +5665,7 @@
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="42" t="s">
         <v>4</v>
@@ -5678,7 +5694,7 @@
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="42">
         <v>24</v>
@@ -5711,7 +5727,7 @@
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="42" t="s">
         <v>5</v>
@@ -5740,7 +5756,7 @@
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
         <v>6</v>
@@ -5769,7 +5785,7 @@
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="40" t="s">
         <v>7</v>
@@ -5798,7 +5814,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="40" t="s">
         <v>8</v>
@@ -5831,7 +5847,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>9</v>
@@ -5860,7 +5876,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="20" t="s">
         <v>10</v>
@@ -5889,7 +5905,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="20" t="s">
         <v>11</v>
@@ -5918,7 +5934,7 @@
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>12</v>
@@ -5947,7 +5963,7 @@
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>13</v>
@@ -5976,7 +5992,7 @@
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>14</v>
@@ -6005,7 +6021,7 @@
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="20" t="s">
         <v>15</v>
@@ -6034,7 +6050,7 @@
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>16</v>
@@ -6063,7 +6079,7 @@
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="3" t="s">
         <v>17</v>
@@ -6092,7 +6108,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>30</v>
@@ -6124,7 +6140,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
     </row>
-    <row r="52" spans="1:17" s="38" customFormat="1" ht="18">
+    <row r="52" spans="1:17" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="36" t="s">
         <v>22</v>
@@ -6182,7 +6198,7 @@
         <v>50868557.259999946</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="40" t="s">
         <v>23</v>
@@ -6240,7 +6256,7 @@
         <v>46709376.859999962</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
         <v>21</v>
@@ -6298,7 +6314,7 @@
         <v>46709376.859999962</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39">
         <v>25</v>
@@ -6356,7 +6372,7 @@
       </c>
       <c r="Q55" s="46"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39">
         <v>27</v>
@@ -6414,7 +6430,7 @@
       </c>
       <c r="Q56" s="46"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39">
         <v>32</v>
@@ -6472,7 +6488,7 @@
       </c>
       <c r="Q57" s="46"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39">
         <v>34</v>
@@ -6530,7 +6546,7 @@
       </c>
       <c r="Q58" s="46"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39">
         <v>36</v>
@@ -6588,7 +6604,7 @@
       </c>
       <c r="Q59" s="46"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39">
         <v>40</v>
@@ -6646,7 +6662,7 @@
       </c>
       <c r="Q60" s="46"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="42" t="s">
         <v>4</v>
@@ -6704,7 +6720,7 @@
       </c>
       <c r="Q61" s="46"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="42">
         <v>24</v>
@@ -6762,7 +6778,7 @@
       </c>
       <c r="Q62" s="46"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="42" t="s">
         <v>5</v>
@@ -6820,7 +6836,7 @@
       </c>
       <c r="Q63" s="46"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
         <v>6</v>
@@ -6878,7 +6894,7 @@
       </c>
       <c r="Q64" s="46"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="40" t="s">
         <v>7</v>
@@ -6936,7 +6952,7 @@
       </c>
       <c r="Q65" s="46"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="40" t="s">
         <v>8</v>
@@ -6994,7 +7010,7 @@
       </c>
       <c r="Q66" s="46"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="20" t="s">
         <v>9</v>
@@ -7052,7 +7068,7 @@
       </c>
       <c r="Q67" s="46"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>10</v>
@@ -7110,7 +7126,7 @@
       </c>
       <c r="Q68" s="46"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>11</v>
@@ -7168,7 +7184,7 @@
       </c>
       <c r="Q69" s="46"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>12</v>
@@ -7226,7 +7242,7 @@
       </c>
       <c r="Q70" s="46"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>13</v>
@@ -7284,7 +7300,7 @@
       </c>
       <c r="Q71" s="46"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>14</v>
@@ -7342,7 +7358,7 @@
       </c>
       <c r="Q72" s="46"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>15</v>
@@ -7400,7 +7416,7 @@
       </c>
       <c r="Q73" s="46"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>16</v>
@@ -7458,7 +7474,7 @@
       </c>
       <c r="Q74" s="46"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="3" t="s">
         <v>17</v>
@@ -7516,7 +7532,7 @@
       </c>
       <c r="Q75" s="46"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>30</v>
@@ -7574,10 +7590,10 @@
       </c>
       <c r="Q76" s="46"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D78" s="48"/>
     </row>
-    <row r="79" spans="1:17" ht="14.25">
+    <row r="79" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B79" s="26" t="s">
         <v>31</v>
       </c>
@@ -7630,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="14.25">
+    <row r="80" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="26" t="s">
         <v>32</v>
       </c>
@@ -7683,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="14.25">
+    <row r="81" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B81" s="26" t="s">
         <v>33</v>
       </c>
@@ -7745,12 +7761,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
